--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H2">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I2">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J2">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.408713108771495</v>
+        <v>1.940154666666666</v>
       </c>
       <c r="N2">
-        <v>0.408713108771495</v>
+        <v>5.820463999999999</v>
       </c>
       <c r="O2">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854888</v>
       </c>
       <c r="P2">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854887</v>
       </c>
       <c r="Q2">
-        <v>0.1476847367258611</v>
+        <v>0.7646421162986666</v>
       </c>
       <c r="R2">
-        <v>0.1476847367258611</v>
+        <v>6.881779046687999</v>
       </c>
       <c r="S2">
-        <v>0.0004084616042607715</v>
+        <v>0.001583570371866642</v>
       </c>
       <c r="T2">
-        <v>0.0004084616042607715</v>
+        <v>0.001583570371866642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H3">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I3">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J3">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.61582925447746</v>
+        <v>1.784324666666667</v>
       </c>
       <c r="N3">
-        <v>1.61582925447746</v>
+        <v>5.352974</v>
       </c>
       <c r="O3">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548077</v>
       </c>
       <c r="P3">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548075</v>
       </c>
       <c r="Q3">
-        <v>0.5838650949041718</v>
+        <v>0.7032273316786667</v>
       </c>
       <c r="R3">
-        <v>0.5838650949041718</v>
+        <v>6.329045985107999</v>
       </c>
       <c r="S3">
-        <v>0.001614834942483696</v>
+        <v>0.001456380630096238</v>
       </c>
       <c r="T3">
-        <v>0.001614834942483696</v>
+        <v>0.001456380630096237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H4">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I4">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J4">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.41371691583652</v>
+        <v>9.084400666666667</v>
       </c>
       <c r="N4">
-        <v>4.41371691583652</v>
+        <v>27.253202</v>
       </c>
       <c r="O4">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="P4">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="Q4">
-        <v>1.59485616367208</v>
+        <v>3.580289484342667</v>
       </c>
       <c r="R4">
-        <v>1.59485616367208</v>
+        <v>32.222605359084</v>
       </c>
       <c r="S4">
-        <v>0.004411000903823286</v>
+        <v>0.007414763363487296</v>
       </c>
       <c r="T4">
-        <v>0.004411000903823286</v>
+        <v>0.007414763363487294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H5">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I5">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J5">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.57371401927529</v>
+        <v>3.885660666666667</v>
       </c>
       <c r="N5">
-        <v>3.57371401927529</v>
+        <v>11.656982</v>
       </c>
       <c r="O5">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067495</v>
       </c>
       <c r="P5">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067494</v>
       </c>
       <c r="Q5">
-        <v>1.291328814132226</v>
+        <v>1.531393267982667</v>
       </c>
       <c r="R5">
-        <v>1.291328814132226</v>
+        <v>13.782539411844</v>
       </c>
       <c r="S5">
-        <v>0.003571514909003086</v>
+        <v>0.003171508546497798</v>
       </c>
       <c r="T5">
-        <v>0.003571514909003086</v>
+        <v>0.003171508546497796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H6">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I6">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J6">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.831186158760956</v>
+        <v>1.013948333333333</v>
       </c>
       <c r="N6">
-        <v>0.831186158760956</v>
+        <v>3.041845</v>
       </c>
       <c r="O6">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426842</v>
       </c>
       <c r="P6">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426841</v>
       </c>
       <c r="Q6">
-        <v>0.3003415021254459</v>
+        <v>0.3996112334433333</v>
       </c>
       <c r="R6">
-        <v>0.3003415021254459</v>
+        <v>3.59650110099</v>
       </c>
       <c r="S6">
-        <v>0.0008306746824620733</v>
+        <v>0.0008275930609330606</v>
       </c>
       <c r="T6">
-        <v>0.0008306746824620733</v>
+        <v>0.0008275930609330604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.361340836778566</v>
+        <v>0.394114</v>
       </c>
       <c r="H7">
-        <v>0.361340836778566</v>
+        <v>1.182342</v>
       </c>
       <c r="I7">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544395</v>
       </c>
       <c r="J7">
-        <v>0.03952475672711059</v>
+        <v>0.03840798249544394</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.705934085245</v>
+        <v>29.348104</v>
       </c>
       <c r="N7">
-        <v>28.705934085245</v>
+        <v>88.04431199999999</v>
       </c>
       <c r="O7">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="P7">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="Q7">
-        <v>10.37262624287279</v>
+        <v>11.566498659856</v>
       </c>
       <c r="R7">
-        <v>10.37262624287279</v>
+        <v>104.098487938704</v>
       </c>
       <c r="S7">
-        <v>0.02868826968507768</v>
+        <v>0.02395416652256292</v>
       </c>
       <c r="T7">
-        <v>0.02868826968507768</v>
+        <v>0.02395416652256291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H8">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I8">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J8">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.408713108771495</v>
+        <v>1.940154666666666</v>
       </c>
       <c r="N8">
-        <v>0.408713108771495</v>
+        <v>5.820463999999999</v>
       </c>
       <c r="O8">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854888</v>
       </c>
       <c r="P8">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854887</v>
       </c>
       <c r="Q8">
-        <v>1.425755058692318</v>
+        <v>6.874854634682666</v>
       </c>
       <c r="R8">
-        <v>1.425755058692318</v>
+        <v>61.87369171214399</v>
       </c>
       <c r="S8">
-        <v>0.003943306610197563</v>
+        <v>0.01423779292078803</v>
       </c>
       <c r="T8">
-        <v>0.003943306610197563</v>
+        <v>0.01423779292078803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H9">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I9">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J9">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.61582925447746</v>
+        <v>1.784324666666667</v>
       </c>
       <c r="N9">
-        <v>1.61582925447746</v>
+        <v>5.352974</v>
       </c>
       <c r="O9">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548077</v>
       </c>
       <c r="P9">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548075</v>
       </c>
       <c r="Q9">
-        <v>5.636659759895983</v>
+        <v>6.322677730372666</v>
       </c>
       <c r="R9">
-        <v>5.636659759895983</v>
+        <v>56.904099573354</v>
       </c>
       <c r="S9">
-        <v>0.0155896888144439</v>
+        <v>0.01309423704405051</v>
       </c>
       <c r="T9">
-        <v>0.0155896888144439</v>
+        <v>0.01309423704405051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H10">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I10">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J10">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.41371691583652</v>
+        <v>9.084400666666667</v>
       </c>
       <c r="N10">
-        <v>4.41371691583652</v>
+        <v>27.253202</v>
       </c>
       <c r="O10">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="P10">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="Q10">
-        <v>15.3968127895502</v>
+        <v>32.19018313310467</v>
       </c>
       <c r="R10">
-        <v>15.3968127895502</v>
+        <v>289.711648197942</v>
       </c>
       <c r="S10">
-        <v>0.04258400016107536</v>
+        <v>0.06666572398771066</v>
       </c>
       <c r="T10">
-        <v>0.04258400016107536</v>
+        <v>0.06666572398771065</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H11">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I11">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J11">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.57371401927529</v>
+        <v>3.885660666666667</v>
       </c>
       <c r="N11">
-        <v>3.57371401927529</v>
+        <v>11.656982</v>
       </c>
       <c r="O11">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067495</v>
       </c>
       <c r="P11">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067494</v>
       </c>
       <c r="Q11">
-        <v>12.46654617126575</v>
+        <v>13.76867148892467</v>
       </c>
       <c r="R11">
-        <v>12.46654617126575</v>
+        <v>123.918043400322</v>
       </c>
       <c r="S11">
-        <v>0.03447956479184695</v>
+        <v>0.02851485651270304</v>
       </c>
       <c r="T11">
-        <v>0.03447956479184695</v>
+        <v>0.02851485651270303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H12">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I12">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J12">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.831186158760956</v>
+        <v>1.013948333333333</v>
       </c>
       <c r="N12">
-        <v>0.831186158760956</v>
+        <v>3.041845</v>
       </c>
       <c r="O12">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426842</v>
       </c>
       <c r="P12">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426841</v>
       </c>
       <c r="Q12">
-        <v>2.899510304747828</v>
+        <v>3.592882319388333</v>
       </c>
       <c r="R12">
-        <v>2.899510304747828</v>
+        <v>32.335940874495</v>
       </c>
       <c r="S12">
-        <v>0.008019370565330376</v>
+        <v>0.007440843068032802</v>
       </c>
       <c r="T12">
-        <v>0.008019370565330376</v>
+        <v>0.007440843068032802</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.48840061180772</v>
+        <v>3.543457</v>
       </c>
       <c r="H13">
-        <v>3.48840061180772</v>
+        <v>10.630371</v>
       </c>
       <c r="I13">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="J13">
-        <v>0.3815737705641538</v>
+        <v>0.3453240291625223</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.705934085245</v>
+        <v>29.348104</v>
       </c>
       <c r="N13">
-        <v>28.705934085245</v>
+        <v>88.04431199999999</v>
       </c>
       <c r="O13">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="P13">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="Q13">
-        <v>100.1377980254807</v>
+        <v>103.993744555528</v>
       </c>
       <c r="R13">
-        <v>100.1377980254807</v>
+        <v>935.943700999752</v>
       </c>
       <c r="S13">
-        <v>0.2769578396212596</v>
+        <v>0.2153705756292373</v>
       </c>
       <c r="T13">
-        <v>0.2769578396212596</v>
+        <v>0.2153705756292373</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>5.29239797742863</v>
+        <v>0.01572166666666667</v>
       </c>
       <c r="H14">
-        <v>5.29239797742863</v>
+        <v>0.047165</v>
       </c>
       <c r="I14">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="J14">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.408713108771495</v>
+        <v>1.940154666666666</v>
       </c>
       <c r="N14">
-        <v>0.408713108771495</v>
+        <v>5.820463999999999</v>
       </c>
       <c r="O14">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854888</v>
       </c>
       <c r="P14">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854887</v>
       </c>
       <c r="Q14">
-        <v>2.163072430210828</v>
+        <v>0.03050246495111111</v>
       </c>
       <c r="R14">
-        <v>2.163072430210828</v>
+        <v>0.2745221845599999</v>
       </c>
       <c r="S14">
-        <v>0.005982554829726322</v>
+        <v>6.317046724982295E-05</v>
       </c>
       <c r="T14">
-        <v>0.005982554829726322</v>
+        <v>6.317046724982293E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>5.29239797742863</v>
+        <v>0.01572166666666667</v>
       </c>
       <c r="H15">
-        <v>5.29239797742863</v>
+        <v>0.047165</v>
       </c>
       <c r="I15">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="J15">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.61582925447746</v>
+        <v>1.784324666666667</v>
       </c>
       <c r="N15">
-        <v>1.61582925447746</v>
+        <v>5.352974</v>
       </c>
       <c r="O15">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548077</v>
       </c>
       <c r="P15">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548075</v>
       </c>
       <c r="Q15">
-        <v>8.551611478266519</v>
+        <v>0.02805255763444444</v>
       </c>
       <c r="R15">
-        <v>8.551611478266519</v>
+        <v>0.25247301871</v>
       </c>
       <c r="S15">
-        <v>0.02365176673545785</v>
+        <v>5.809672025394432E-05</v>
       </c>
       <c r="T15">
-        <v>0.02365176673545785</v>
+        <v>5.80967202539443E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>5.29239797742863</v>
+        <v>0.01572166666666667</v>
       </c>
       <c r="H16">
-        <v>5.29239797742863</v>
+        <v>0.047165</v>
       </c>
       <c r="I16">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="J16">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.41371691583652</v>
+        <v>9.084400666666667</v>
       </c>
       <c r="N16">
-        <v>4.41371691583652</v>
+        <v>27.253202</v>
       </c>
       <c r="O16">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="P16">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="Q16">
-        <v>23.35914647831573</v>
+        <v>0.1428219191477778</v>
       </c>
       <c r="R16">
-        <v>23.35914647831573</v>
+        <v>1.28539727233</v>
       </c>
       <c r="S16">
-        <v>0.06460596170074233</v>
+        <v>0.0002957835499702101</v>
       </c>
       <c r="T16">
-        <v>0.06460596170074233</v>
+        <v>0.0002957835499702101</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>5.29239797742863</v>
+        <v>0.01572166666666667</v>
       </c>
       <c r="H17">
-        <v>5.29239797742863</v>
+        <v>0.047165</v>
       </c>
       <c r="I17">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="J17">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.57371401927529</v>
+        <v>3.885660666666667</v>
       </c>
       <c r="N17">
-        <v>3.57371401927529</v>
+        <v>11.656982</v>
       </c>
       <c r="O17">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067495</v>
       </c>
       <c r="P17">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067494</v>
       </c>
       <c r="Q17">
-        <v>18.91351684752089</v>
+        <v>0.06108906178111111</v>
       </c>
       <c r="R17">
-        <v>18.91351684752089</v>
+        <v>0.54980155603</v>
       </c>
       <c r="S17">
-        <v>0.05231038497967344</v>
+        <v>0.0001265151712411202</v>
       </c>
       <c r="T17">
-        <v>0.05231038497967344</v>
+        <v>0.0001265151712411202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>5.29239797742863</v>
+        <v>0.01572166666666667</v>
       </c>
       <c r="H18">
-        <v>5.29239797742863</v>
+        <v>0.047165</v>
       </c>
       <c r="I18">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="J18">
-        <v>0.5789014727087356</v>
+        <v>0.001532139173265953</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.831186158760956</v>
+        <v>1.013948333333333</v>
       </c>
       <c r="N18">
-        <v>0.831186158760956</v>
+        <v>3.041845</v>
       </c>
       <c r="O18">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426842</v>
       </c>
       <c r="P18">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426841</v>
       </c>
       <c r="Q18">
-        <v>4.398967945493156</v>
+        <v>0.01594095771388888</v>
       </c>
       <c r="R18">
-        <v>4.398967945493156</v>
+        <v>0.143468619425</v>
       </c>
       <c r="S18">
-        <v>0.01216652136126404</v>
+        <v>3.301365148062726E-05</v>
       </c>
       <c r="T18">
-        <v>0.01216652136126404</v>
+        <v>3.301365148062725E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.047165</v>
+      </c>
+      <c r="I19">
+        <v>0.001532139173265953</v>
+      </c>
+      <c r="J19">
+        <v>0.001532139173265953</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.348104</v>
+      </c>
+      <c r="N19">
+        <v>88.04431199999999</v>
+      </c>
+      <c r="O19">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="P19">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="Q19">
+        <v>0.4614011083866665</v>
+      </c>
+      <c r="R19">
+        <v>4.15260997548</v>
+      </c>
+      <c r="S19">
+        <v>0.0009555596130702282</v>
+      </c>
+      <c r="T19">
+        <v>0.0009555596130702282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H20">
+        <v>18.923879</v>
+      </c>
+      <c r="I20">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J20">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.940154666666666</v>
+      </c>
+      <c r="N20">
+        <v>5.820463999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.04123024092854888</v>
+      </c>
+      <c r="P20">
+        <v>0.04123024092854887</v>
+      </c>
+      <c r="Q20">
+        <v>12.23841738442844</v>
+      </c>
+      <c r="R20">
+        <v>110.145756459856</v>
+      </c>
+      <c r="S20">
+        <v>0.02534570716864438</v>
+      </c>
+      <c r="T20">
+        <v>0.02534570716864437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H21">
+        <v>18.923879</v>
+      </c>
+      <c r="I21">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J21">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.784324666666667</v>
+      </c>
+      <c r="N21">
+        <v>5.352974</v>
+      </c>
+      <c r="O21">
+        <v>0.03791869646548077</v>
+      </c>
+      <c r="P21">
+        <v>0.03791869646548075</v>
+      </c>
+      <c r="Q21">
+        <v>11.25544802957178</v>
+      </c>
+      <c r="R21">
+        <v>101.299032266146</v>
+      </c>
+      <c r="S21">
+        <v>0.02330998207108007</v>
+      </c>
+      <c r="T21">
+        <v>0.02330998207108007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.29239797742863</v>
-      </c>
-      <c r="H19">
-        <v>5.29239797742863</v>
-      </c>
-      <c r="I19">
-        <v>0.5789014727087356</v>
-      </c>
-      <c r="J19">
-        <v>0.5789014727087356</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>28.705934085245</v>
-      </c>
-      <c r="N19">
-        <v>28.705934085245</v>
-      </c>
-      <c r="O19">
-        <v>0.725830392408209</v>
-      </c>
-      <c r="P19">
-        <v>0.725830392408209</v>
-      </c>
-      <c r="Q19">
-        <v>151.9232274929502</v>
-      </c>
-      <c r="R19">
-        <v>151.9232274929502</v>
-      </c>
-      <c r="S19">
-        <v>0.4201842831018717</v>
-      </c>
-      <c r="T19">
-        <v>0.4201842831018717</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H22">
+        <v>18.923879</v>
+      </c>
+      <c r="I22">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J22">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.084400666666667</v>
+      </c>
+      <c r="N22">
+        <v>27.253202</v>
+      </c>
+      <c r="O22">
+        <v>0.1930526646216539</v>
+      </c>
+      <c r="P22">
+        <v>0.1930526646216539</v>
+      </c>
+      <c r="Q22">
+        <v>57.30403300117311</v>
+      </c>
+      <c r="R22">
+        <v>515.736297010558</v>
+      </c>
+      <c r="S22">
+        <v>0.1186763937204858</v>
+      </c>
+      <c r="T22">
+        <v>0.1186763937204857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H23">
+        <v>18.923879</v>
+      </c>
+      <c r="I23">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J23">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.885660666666667</v>
+      </c>
+      <c r="N23">
+        <v>11.656982</v>
+      </c>
+      <c r="O23">
+        <v>0.08257420308067495</v>
+      </c>
+      <c r="P23">
+        <v>0.08257420308067494</v>
+      </c>
+      <c r="Q23">
+        <v>24.51059076368644</v>
+      </c>
+      <c r="R23">
+        <v>220.595316873178</v>
+      </c>
+      <c r="S23">
+        <v>0.050761322850233</v>
+      </c>
+      <c r="T23">
+        <v>0.05076132285023299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H24">
+        <v>18.923879</v>
+      </c>
+      <c r="I24">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J24">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.013948333333333</v>
+      </c>
+      <c r="N24">
+        <v>3.041845</v>
+      </c>
+      <c r="O24">
+        <v>0.02154742340426842</v>
+      </c>
+      <c r="P24">
+        <v>0.02154742340426841</v>
+      </c>
+      <c r="Q24">
+        <v>6.395945190750554</v>
+      </c>
+      <c r="R24">
+        <v>57.56350671675499</v>
+      </c>
+      <c r="S24">
+        <v>0.01324597362382193</v>
+      </c>
+      <c r="T24">
+        <v>0.01324597362382192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.307959666666666</v>
+      </c>
+      <c r="H25">
+        <v>18.923879</v>
+      </c>
+      <c r="I25">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="J25">
+        <v>0.6147358491687678</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.348104</v>
+      </c>
+      <c r="N25">
+        <v>88.04431199999999</v>
+      </c>
+      <c r="O25">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="P25">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="Q25">
+        <v>185.1266563251386</v>
+      </c>
+      <c r="R25">
+        <v>1666.139906926248</v>
+      </c>
+      <c r="S25">
+        <v>0.3833964697345026</v>
+      </c>
+      <c r="T25">
+        <v>0.3833964697345026</v>
       </c>
     </row>
   </sheetData>
